--- a/teaching/traditional_assets/database/data/ghana/ghana_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/ghana/ghana_insurance_prop_cas.xlsx
@@ -590,29 +590,23 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.126</v>
-      </c>
-      <c r="E2">
-        <v>1.203</v>
-      </c>
       <c r="G2">
-        <v>-0.06466431095406361</v>
+        <v>0.1796078431372549</v>
       </c>
       <c r="H2">
-        <v>-0.06466431095406361</v>
+        <v>0.1796078431372549</v>
       </c>
       <c r="I2">
-        <v>-0.1166077738515901</v>
+        <v>0.1505882352941176</v>
       </c>
       <c r="J2">
-        <v>-0.0881961972067979</v>
+        <v>0.113832231117299</v>
       </c>
       <c r="K2">
-        <v>9.369999999999999</v>
+        <v>2.46</v>
       </c>
       <c r="L2">
-        <v>0.331095406360424</v>
+        <v>0.09647058823529411</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,52 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>5.910780669144982</v>
+      </c>
+      <c r="W2">
+        <v>0.09283018867924528</v>
       </c>
       <c r="X2">
-        <v>0.07755071037458064</v>
+        <v>0.08888812734145883</v>
+      </c>
+      <c r="Y2">
+        <v>0.003942061337786448</v>
+      </c>
+      <c r="Z2">
+        <v>0.864406779661017</v>
+      </c>
+      <c r="AA2">
+        <v>0.09839735232173302</v>
       </c>
       <c r="AB2">
-        <v>0.07755071037458064</v>
+        <v>0.08607181213620371</v>
+      </c>
+      <c r="AC2">
+        <v>0.01232554018552931</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>-15.53</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.1209150326797386</v>
+      </c>
+      <c r="AI2">
+        <v>0.007713154054617469</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.209501557632399</v>
+      </c>
+      <c r="AK2">
+        <v>-0.4842531961334581</v>
       </c>
       <c r="AL2">
-        <v>1.4</v>
+        <v>0.468</v>
       </c>
       <c r="AM2">
-        <v>1.4</v>
+        <v>0.468</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>0.072265625</v>
       </c>
       <c r="AO2">
-        <v>-2.357142857142857</v>
+        <v>8.205128205128204</v>
       </c>
       <c r="AP2">
-        <v>-0</v>
+        <v>-3.033203125</v>
       </c>
       <c r="AQ2">
-        <v>-2.357142857142857</v>
+        <v>8.205128205128204</v>
       </c>
     </row>
     <row r="3">
@@ -700,29 +715,23 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.126</v>
-      </c>
-      <c r="E3">
-        <v>1.203</v>
-      </c>
       <c r="G3">
-        <v>-0.06466431095406361</v>
+        <v>0.1796078431372549</v>
       </c>
       <c r="H3">
-        <v>-0.06466431095406361</v>
+        <v>0.1796078431372549</v>
       </c>
       <c r="I3">
-        <v>-0.1166077738515901</v>
+        <v>0.1505882352941176</v>
       </c>
       <c r="J3">
-        <v>-0.0881961972067979</v>
+        <v>0.113832231117299</v>
       </c>
       <c r="K3">
-        <v>9.369999999999999</v>
+        <v>2.46</v>
       </c>
       <c r="L3">
-        <v>0.331095406360424</v>
+        <v>0.09647058823529411</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,52 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>5.910780669144982</v>
+      </c>
+      <c r="W3">
+        <v>0.09283018867924528</v>
       </c>
       <c r="X3">
-        <v>0.07755071037458064</v>
+        <v>0.08888812734145883</v>
+      </c>
+      <c r="Y3">
+        <v>0.003942061337786448</v>
+      </c>
+      <c r="Z3">
+        <v>0.864406779661017</v>
+      </c>
+      <c r="AA3">
+        <v>0.09839735232173302</v>
       </c>
       <c r="AB3">
-        <v>0.07755071037458064</v>
+        <v>0.08607181213620371</v>
+      </c>
+      <c r="AC3">
+        <v>0.01232554018552931</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-15.53</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.1209150326797386</v>
+      </c>
+      <c r="AI3">
+        <v>0.007713154054617469</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.209501557632399</v>
+      </c>
+      <c r="AK3">
+        <v>-0.4842531961334581</v>
       </c>
       <c r="AL3">
-        <v>1.4</v>
+        <v>0.468</v>
       </c>
       <c r="AM3">
-        <v>1.4</v>
+        <v>0.468</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>0.072265625</v>
       </c>
       <c r="AO3">
-        <v>-2.357142857142857</v>
+        <v>8.205128205128204</v>
       </c>
       <c r="AP3">
-        <v>-0</v>
+        <v>-3.033203125</v>
       </c>
       <c r="AQ3">
-        <v>-2.357142857142857</v>
+        <v>8.205128205128204</v>
       </c>
     </row>
   </sheetData>
